--- a/source_code/data/co2_price.xlsx
+++ b/source_code/data/co2_price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A77CE-0EDB-4CAF-A07F-F50AAD07B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC464DA-46BB-42A9-B9C9-769D114A66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -363,18 +363,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>42.78</v>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>55.8</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +420,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>69.75</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>83.7</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>102.3</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -478,18 +478,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>120.9</v>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
